--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/100/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/100/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.77556</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1775.56</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.22327</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2223.27</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124015</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.55907</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2559.07</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.15505</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.77613</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>2776.13</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186026</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.83735</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2837.35</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216998</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.83432</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>2834.32</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247974</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>2.82829</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2828.29</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278901</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>2.82235</v>
+        <v>10.0216</v>
       </c>
       <c r="C11" t="n">
-        <v>2822.35</v>
+        <v>10021.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309826</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>2.81485</v>
+        <v>11.1716</v>
       </c>
       <c r="C12" t="n">
-        <v>2814.85</v>
+        <v>11171.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340751</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>2.80748</v>
+        <v>11.9302</v>
       </c>
       <c r="C13" t="n">
-        <v>2807.48</v>
+        <v>11930.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371676</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>2.7991</v>
+        <v>12.5499</v>
       </c>
       <c r="C14" t="n">
-        <v>2799.1</v>
+        <v>12549.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402601</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>2.79093</v>
+        <v>13.0975</v>
       </c>
       <c r="C15" t="n">
-        <v>2790.93</v>
+        <v>13097.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433526</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>2.782</v>
+        <v>13.2829</v>
       </c>
       <c r="C16" t="n">
-        <v>2782</v>
+        <v>13282.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464451</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>2.77298</v>
+        <v>13.3434</v>
       </c>
       <c r="C17" t="n">
-        <v>2772.98</v>
+        <v>13343.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495376</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>2.7636</v>
+        <v>13.3616</v>
       </c>
       <c r="C18" t="n">
-        <v>2763.6</v>
+        <v>13361.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526301</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>2.75388</v>
+        <v>13.3711</v>
       </c>
       <c r="C19" t="n">
-        <v>2753.88</v>
+        <v>13371.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557226</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2.74397</v>
+        <v>13.3723</v>
       </c>
       <c r="C20" t="n">
-        <v>2743.97</v>
+        <v>13372.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588151</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>2.73371</v>
+        <v>13.3699</v>
       </c>
       <c r="C21" t="n">
-        <v>2733.71</v>
+        <v>13369.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619193</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>2.72312</v>
+        <v>13.3646</v>
       </c>
       <c r="C22" t="n">
-        <v>2723.12</v>
+        <v>13364.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650366</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>2.71211</v>
+        <v>13.3569</v>
       </c>
       <c r="C23" t="n">
-        <v>2712.11</v>
+        <v>13356.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681543</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>2.7006</v>
+        <v>13.3464</v>
       </c>
       <c r="C24" t="n">
-        <v>2700.6</v>
+        <v>13346.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712716</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>2.68876</v>
+        <v>13.3333</v>
       </c>
       <c r="C25" t="n">
-        <v>2688.76</v>
+        <v>13333.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743888</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>2.6766</v>
+        <v>13.3182</v>
       </c>
       <c r="C26" t="n">
-        <v>2676.6</v>
+        <v>13318.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775065</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>2.6641</v>
+        <v>13.3009</v>
       </c>
       <c r="C27" t="n">
-        <v>2664.1</v>
+        <v>13300.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806238</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>2.65117</v>
+        <v>13.281</v>
       </c>
       <c r="C28" t="n">
-        <v>2651.17</v>
+        <v>13281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.83741</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>2.63782</v>
+        <v>13.2585</v>
       </c>
       <c r="C29" t="n">
-        <v>2637.82</v>
+        <v>13258.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868587</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>2.62408</v>
+        <v>13.2344</v>
       </c>
       <c r="C30" t="n">
-        <v>2624.08</v>
+        <v>13234.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89976</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>2.60982</v>
+        <v>13.208</v>
       </c>
       <c r="C31" t="n">
-        <v>2609.82</v>
+        <v>13208</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930932</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>2.59499</v>
+        <v>13.1781</v>
       </c>
       <c r="C32" t="n">
-        <v>2594.99</v>
+        <v>13178.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962109</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>2.57969</v>
+        <v>13.1457</v>
       </c>
       <c r="C33" t="n">
-        <v>2579.69</v>
+        <v>13145.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993282</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>2.56399</v>
+        <v>13.1113</v>
       </c>
       <c r="C34" t="n">
-        <v>2563.99</v>
+        <v>13111.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.0245</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>2.54769</v>
+        <v>13.0748</v>
       </c>
       <c r="C35" t="n">
-        <v>2547.69</v>
+        <v>13074.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05552</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>2.53076</v>
+        <v>13.036</v>
       </c>
       <c r="C36" t="n">
-        <v>2530.76</v>
+        <v>13036</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0865</v>
+        <v>1.08731</v>
       </c>
       <c r="B37" t="n">
-        <v>2.51333</v>
+        <v>12.995</v>
       </c>
       <c r="C37" t="n">
-        <v>2513.33</v>
+        <v>12995</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11748</v>
+        <v>1.11869</v>
       </c>
       <c r="B38" t="n">
-        <v>2.49509</v>
+        <v>12.9514</v>
       </c>
       <c r="C38" t="n">
-        <v>2495.09</v>
+        <v>12951.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14848</v>
+        <v>1.15007</v>
       </c>
       <c r="B39" t="n">
-        <v>2.47606</v>
+        <v>12.9043</v>
       </c>
       <c r="C39" t="n">
-        <v>2476.06</v>
+        <v>12904.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1795</v>
+        <v>1.18145</v>
       </c>
       <c r="B40" t="n">
-        <v>2.45634</v>
+        <v>12.855</v>
       </c>
       <c r="C40" t="n">
-        <v>2456.34</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21048</v>
+        <v>1.21283</v>
       </c>
       <c r="B41" t="n">
-        <v>2.43591</v>
+        <v>12.8025</v>
       </c>
       <c r="C41" t="n">
-        <v>2435.91</v>
+        <v>12802.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24143</v>
+        <v>1.24421</v>
       </c>
       <c r="B42" t="n">
-        <v>2.41474</v>
+        <v>12.7468</v>
       </c>
       <c r="C42" t="n">
-        <v>2414.74</v>
+        <v>12746.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27245</v>
+        <v>1.27559</v>
       </c>
       <c r="B43" t="n">
-        <v>2.39285</v>
+        <v>12.6888</v>
       </c>
       <c r="C43" t="n">
-        <v>2392.85</v>
+        <v>12688.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30346</v>
+        <v>1.30698</v>
       </c>
       <c r="B44" t="n">
-        <v>2.37032</v>
+        <v>12.628</v>
       </c>
       <c r="C44" t="n">
-        <v>2370.32</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33448</v>
+        <v>1.33835</v>
       </c>
       <c r="B45" t="n">
-        <v>2.34695</v>
+        <v>12.5643</v>
       </c>
       <c r="C45" t="n">
-        <v>2346.95</v>
+        <v>12564.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36544</v>
+        <v>1.36973</v>
       </c>
       <c r="B46" t="n">
-        <v>2.32282</v>
+        <v>12.4968</v>
       </c>
       <c r="C46" t="n">
-        <v>2322.82</v>
+        <v>12496.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39645</v>
+        <v>1.40107</v>
       </c>
       <c r="B47" t="n">
-        <v>2.29796</v>
+        <v>12.4258</v>
       </c>
       <c r="C47" t="n">
-        <v>2297.96</v>
+        <v>12425.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42742</v>
+        <v>1.43198</v>
       </c>
       <c r="B48" t="n">
-        <v>2.27254</v>
+        <v>12.3524</v>
       </c>
       <c r="C48" t="n">
-        <v>2272.54</v>
+        <v>12352.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4585</v>
+        <v>1.46303</v>
       </c>
       <c r="B49" t="n">
-        <v>2.24645</v>
+        <v>12.275</v>
       </c>
       <c r="C49" t="n">
-        <v>2246.45</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48943</v>
+        <v>1.49405</v>
       </c>
       <c r="B50" t="n">
-        <v>2.21996</v>
+        <v>12.1941</v>
       </c>
       <c r="C50" t="n">
-        <v>2219.96</v>
+        <v>12194.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52056</v>
+        <v>1.52494</v>
       </c>
       <c r="B51" t="n">
-        <v>2.19277</v>
+        <v>12.1095</v>
       </c>
       <c r="C51" t="n">
-        <v>2192.77</v>
+        <v>12109.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55128</v>
+        <v>1.55608</v>
       </c>
       <c r="B52" t="n">
-        <v>2.1655</v>
+        <v>12.0203</v>
       </c>
       <c r="C52" t="n">
-        <v>2165.5</v>
+        <v>12020.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58256</v>
+        <v>1.58698</v>
       </c>
       <c r="B53" t="n">
-        <v>2.13755</v>
+        <v>11.9275</v>
       </c>
       <c r="C53" t="n">
-        <v>2137.55</v>
+        <v>11927.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61324</v>
+        <v>1.618</v>
       </c>
       <c r="B54" t="n">
-        <v>2.10989</v>
+        <v>11.8306</v>
       </c>
       <c r="C54" t="n">
-        <v>2109.89</v>
+        <v>11830.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64453</v>
+        <v>1.64907</v>
       </c>
       <c r="B55" t="n">
-        <v>2.08153</v>
+        <v>11.7285</v>
       </c>
       <c r="C55" t="n">
-        <v>2081.53</v>
+        <v>11728.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67543</v>
+        <v>1.67998</v>
       </c>
       <c r="B56" t="n">
-        <v>2.05349</v>
+        <v>11.6219</v>
       </c>
       <c r="C56" t="n">
-        <v>2053.49</v>
+        <v>11621.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70638</v>
+        <v>1.71101</v>
       </c>
       <c r="B57" t="n">
-        <v>2.02532</v>
+        <v>11.511</v>
       </c>
       <c r="C57" t="n">
-        <v>2025.32</v>
+        <v>11511</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73759</v>
+        <v>1.7421</v>
       </c>
       <c r="B58" t="n">
-        <v>1.99702</v>
+        <v>11.395</v>
       </c>
       <c r="C58" t="n">
-        <v>1997.02</v>
+        <v>11395</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76821</v>
+        <v>1.77282</v>
       </c>
       <c r="B59" t="n">
-        <v>1.96943</v>
+        <v>11.2738</v>
       </c>
       <c r="C59" t="n">
-        <v>1969.43</v>
+        <v>11273.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79959</v>
+        <v>1.80413</v>
       </c>
       <c r="B60" t="n">
-        <v>1.94133</v>
+        <v>11.1459</v>
       </c>
       <c r="C60" t="n">
-        <v>1941.33</v>
+        <v>11145.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83058</v>
+        <v>1.83499</v>
       </c>
       <c r="B61" t="n">
-        <v>1.91382</v>
+        <v>11.0155</v>
       </c>
       <c r="C61" t="n">
-        <v>1913.82</v>
+        <v>11015.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8611</v>
+        <v>1.86605</v>
       </c>
       <c r="B62" t="n">
-        <v>1.88708</v>
+        <v>10.8794</v>
       </c>
       <c r="C62" t="n">
-        <v>1887.08</v>
+        <v>10879.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89258</v>
+        <v>1.89709</v>
       </c>
       <c r="B63" t="n">
-        <v>1.85982</v>
+        <v>10.7378</v>
       </c>
       <c r="C63" t="n">
-        <v>1859.82</v>
+        <v>10737.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9235</v>
+        <v>1.92793</v>
       </c>
       <c r="B64" t="n">
-        <v>1.83336</v>
+        <v>10.5919</v>
       </c>
       <c r="C64" t="n">
-        <v>1833.36</v>
+        <v>10591.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95405</v>
+        <v>1.95912</v>
       </c>
       <c r="B65" t="n">
-        <v>1.80781</v>
+        <v>10.4397</v>
       </c>
       <c r="C65" t="n">
-        <v>1807.81</v>
+        <v>10439.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98568</v>
+        <v>1.98986</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78193</v>
+        <v>10.285</v>
       </c>
       <c r="C66" t="n">
-        <v>1781.93</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0165</v>
+        <v>2.02102</v>
       </c>
       <c r="B67" t="n">
-        <v>1.75684</v>
+        <v>10.1237</v>
       </c>
       <c r="C67" t="n">
-        <v>1756.84</v>
+        <v>10123.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04662</v>
+        <v>2.05182</v>
       </c>
       <c r="B68" t="n">
-        <v>1.73267</v>
+        <v>9.96147</v>
       </c>
       <c r="C68" t="n">
-        <v>1732.67</v>
+        <v>9961.469999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07823</v>
+        <v>2.08305</v>
       </c>
       <c r="B69" t="n">
-        <v>1.70832</v>
+        <v>9.79138</v>
       </c>
       <c r="C69" t="n">
-        <v>1708.32</v>
+        <v>9791.379999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10956</v>
+        <v>2.11392</v>
       </c>
       <c r="B70" t="n">
-        <v>1.68476</v>
+        <v>9.62242</v>
       </c>
       <c r="C70" t="n">
-        <v>1684.76</v>
+        <v>9622.42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13996</v>
+        <v>2.14498</v>
       </c>
       <c r="B71" t="n">
-        <v>1.66225</v>
+        <v>9.449200000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>1662.25</v>
+        <v>9449.200000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17065</v>
+        <v>2.1761</v>
       </c>
       <c r="B72" t="n">
-        <v>1.64029</v>
+        <v>9.27501</v>
       </c>
       <c r="C72" t="n">
-        <v>1640.29</v>
+        <v>9275.01</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20257</v>
+        <v>2.20663</v>
       </c>
       <c r="B73" t="n">
-        <v>1.61802</v>
+        <v>9.101780000000002</v>
       </c>
       <c r="C73" t="n">
-        <v>1618.02</v>
+        <v>9101.780000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23329</v>
+        <v>2.23834</v>
       </c>
       <c r="B74" t="n">
-        <v>1.59677</v>
+        <v>8.92244</v>
       </c>
       <c r="C74" t="n">
-        <v>1596.77</v>
+        <v>8922.440000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26401</v>
+        <v>2.26874</v>
       </c>
       <c r="B75" t="n">
-        <v>1.57633</v>
+        <v>8.746530000000002</v>
       </c>
       <c r="C75" t="n">
-        <v>1576.33</v>
+        <v>8746.530000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29481</v>
+        <v>2.29996</v>
       </c>
       <c r="B76" t="n">
-        <v>1.55673</v>
+        <v>8.568350000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>1556.73</v>
+        <v>8568.35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3262</v>
+        <v>2.33069</v>
       </c>
       <c r="B77" t="n">
-        <v>1.53698</v>
+        <v>8.38916</v>
       </c>
       <c r="C77" t="n">
-        <v>1536.98</v>
+        <v>8389.16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35729</v>
+        <v>2.36141</v>
       </c>
       <c r="B78" t="n">
-        <v>1.51829</v>
+        <v>8.21421</v>
       </c>
       <c r="C78" t="n">
-        <v>1518.29</v>
+        <v>8214.209999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38837</v>
+        <v>2.39263</v>
       </c>
       <c r="B79" t="n">
-        <v>1.50023</v>
+        <v>8.03614</v>
       </c>
       <c r="C79" t="n">
-        <v>1500.23</v>
+        <v>8036.14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41942</v>
+        <v>2.42372</v>
       </c>
       <c r="B80" t="n">
-        <v>1.48316</v>
+        <v>7.86123</v>
       </c>
       <c r="C80" t="n">
-        <v>1483.16</v>
+        <v>7861.23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44867</v>
+        <v>2.45481</v>
       </c>
       <c r="B81" t="n">
-        <v>1.46698</v>
+        <v>7.69354</v>
       </c>
       <c r="C81" t="n">
-        <v>1466.98</v>
+        <v>7693.54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47793</v>
+        <v>2.48472</v>
       </c>
       <c r="B82" t="n">
-        <v>1.45162</v>
+        <v>7.53115</v>
       </c>
       <c r="C82" t="n">
-        <v>1451.62</v>
+        <v>7531.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50719</v>
+        <v>2.51398</v>
       </c>
       <c r="B83" t="n">
-        <v>1.4372</v>
+        <v>7.376729999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1437.2</v>
+        <v>7376.73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53946</v>
+        <v>2.54491</v>
       </c>
       <c r="B84" t="n">
-        <v>1.42196</v>
+        <v>7.21656</v>
       </c>
       <c r="C84" t="n">
-        <v>1421.96</v>
+        <v>7216.56</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57232</v>
+        <v>2.57691</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40632</v>
+        <v>7.05575</v>
       </c>
       <c r="C85" t="n">
-        <v>1406.32</v>
+        <v>7055.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60432</v>
+        <v>2.60891</v>
       </c>
       <c r="B86" t="n">
-        <v>1.3912</v>
+        <v>6.90272</v>
       </c>
       <c r="C86" t="n">
-        <v>1391.2</v>
+        <v>6902.72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63632</v>
+        <v>2.64091</v>
       </c>
       <c r="B87" t="n">
-        <v>1.37761</v>
+        <v>6.76203</v>
       </c>
       <c r="C87" t="n">
-        <v>1377.61</v>
+        <v>6762.03</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66832</v>
+        <v>2.67266</v>
       </c>
       <c r="B88" t="n">
-        <v>1.36468</v>
+        <v>6.62577</v>
       </c>
       <c r="C88" t="n">
-        <v>1364.68</v>
+        <v>6625.77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70032</v>
+        <v>2.70252</v>
       </c>
       <c r="B89" t="n">
-        <v>1.35203</v>
+        <v>6.49532</v>
       </c>
       <c r="C89" t="n">
-        <v>1352.03</v>
+        <v>6495.32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73047</v>
+        <v>2.73239</v>
       </c>
       <c r="B90" t="n">
-        <v>1.33975</v>
+        <v>6.37203</v>
       </c>
       <c r="C90" t="n">
-        <v>1339.75</v>
+        <v>6372.03</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76034</v>
+        <v>2.76226</v>
       </c>
       <c r="B91" t="n">
-        <v>1.32788</v>
+        <v>6.25512</v>
       </c>
       <c r="C91" t="n">
-        <v>1327.88</v>
+        <v>6255.12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79021</v>
+        <v>2.79078</v>
       </c>
       <c r="B92" t="n">
-        <v>1.31653</v>
+        <v>6.15209</v>
       </c>
       <c r="C92" t="n">
-        <v>1316.53</v>
+        <v>6152.09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82042</v>
+        <v>2.81894</v>
       </c>
       <c r="B93" t="n">
-        <v>1.30733</v>
+        <v>6.07551</v>
       </c>
       <c r="C93" t="n">
-        <v>1307.33</v>
+        <v>6075.51</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85114</v>
+        <v>2.85259</v>
       </c>
       <c r="B94" t="n">
-        <v>1.30213</v>
+        <v>6.00258</v>
       </c>
       <c r="C94" t="n">
-        <v>1302.13</v>
+        <v>6002.58</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88186</v>
+        <v>2.88738</v>
       </c>
       <c r="B95" t="n">
-        <v>1.29587</v>
+        <v>5.94991</v>
       </c>
       <c r="C95" t="n">
-        <v>1295.87</v>
+        <v>5949.91</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91258</v>
+        <v>2.91938</v>
       </c>
       <c r="B96" t="n">
-        <v>1.28942</v>
+        <v>5.90568</v>
       </c>
       <c r="C96" t="n">
-        <v>1289.42</v>
+        <v>5905.68</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9433</v>
+        <v>2.95138</v>
       </c>
       <c r="B97" t="n">
-        <v>1.28319</v>
+        <v>5.86375</v>
       </c>
       <c r="C97" t="n">
-        <v>1283.19</v>
+        <v>5863.75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97402</v>
+        <v>2.98338</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2772</v>
+        <v>5.83047</v>
       </c>
       <c r="C98" t="n">
-        <v>1277.2</v>
+        <v>5830.47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00474</v>
+        <v>3.01538</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27063</v>
+        <v>5.788819999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1270.63</v>
+        <v>5788.82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03546</v>
+        <v>3.04738</v>
       </c>
       <c r="B100" t="n">
-        <v>1.26364</v>
+        <v>5.752260000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1263.64</v>
+        <v>5752.26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06618</v>
+        <v>3.07938</v>
       </c>
       <c r="B101" t="n">
-        <v>1.25656</v>
+        <v>5.718649999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>1256.56</v>
+        <v>5718.65</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09469</v>
+        <v>3.10923</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25116</v>
+        <v>5.68388</v>
       </c>
       <c r="C102" t="n">
-        <v>1251.16</v>
+        <v>5683.88</v>
       </c>
     </row>
   </sheetData>
